--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2114906.779737834</v>
+        <v>2104087.931117826</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069189</v>
+        <v>840694.9721069187</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>101.5798714036936</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.683290912584</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.05143818257761</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>317.0821147856482</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>102.4163325400863</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.980920871197519</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262.98102090663</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>334.2916501722309</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>36.86740133315055</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145558</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>82.48663323200037</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.5372961108903</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>27.10637519976188</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.068204333704047</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3925413935805</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>153.9464379242145</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169269</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040317</v>
+        <v>45.37937317040311</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>66.56858183794374</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.75936494032369</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.50693824514786</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>223.3938689470336</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>226.0496689452468</v>
       </c>
       <c r="V28" t="n">
-        <v>106.7370441133506</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2849,7 +2849,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.46775364474621</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>156.7098886695026</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>114.6236365596722</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>39.16627951868363</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169269</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
         <v>45.37937317040317</v>
@@ -3320,7 +3320,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803228</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3481,16 +3481,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>196.1045249289133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>17.95777974076401</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040317</v>
+        <v>45.37937317040376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>64.21168800535585</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
@@ -3679,7 +3679,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>80.25276809568516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.0203559212046</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145558</v>
+        <v>111.4352990145567</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>56.7851935482926</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.49822731249095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145567</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.59110247609227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.43271568980208</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.0724226640064</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>411.0461427127116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0461427127116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0461427127116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.597764264522</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.597764264522</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1525.597764264522</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1139.809511666278</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>728.8236068766701</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>310.8597987748569</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2302.336936304455</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1912.197604328644</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239298</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>262.3791120239298</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1534.318342165211</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1534.318342165211</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205145</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229333</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5042,16 +5042,16 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K11" t="n">
-        <v>855.1603485090793</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L11" t="n">
-        <v>1704.270214144072</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M11" t="n">
-        <v>2665.675091091659</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N11" t="n">
-        <v>3628.004506520299</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O11" t="n">
         <v>4114.525067779331</v>
@@ -5075,13 +5075,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5118,7 +5118,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K12" t="n">
         <v>488.143009511182</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.605169488108</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C13" t="n">
-        <v>953.668986560201</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D13" t="n">
-        <v>803.5523471478652</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5227,22 +5227,22 @@
         <v>1628.77411916334</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682883</v>
+        <v>1545.454287615865</v>
       </c>
       <c r="U13" t="n">
-        <v>1406.816559682883</v>
+        <v>1256.348983157892</v>
       </c>
       <c r="V13" t="n">
-        <v>1406.816559682883</v>
+        <v>1001.664494952005</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.816559682883</v>
+        <v>712.2473249150439</v>
       </c>
       <c r="X13" t="n">
-        <v>1406.816559682883</v>
+        <v>484.2577740170266</v>
       </c>
       <c r="Y13" t="n">
-        <v>1304.253634318348</v>
+        <v>263.4651948734965</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5279,25 +5279,25 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K14" t="n">
-        <v>674.8131333966985</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L14" t="n">
-        <v>1110.438396626745</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M14" t="n">
-        <v>2071.843273574333</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N14" t="n">
-        <v>3034.172689002973</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5309,19 +5309,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5358,7 @@
         <v>184.4590143936092</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L15" t="n">
         <v>843.497549143383</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>660.3300373357781</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="C16" t="n">
-        <v>491.3938544078712</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="D16" t="n">
-        <v>341.2772149955355</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="E16" t="n">
-        <v>341.2772149955355</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="F16" t="n">
-        <v>194.3872674976252</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3872674976252</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5458,28 +5458,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R16" t="n">
-        <v>1907.959251655797</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S16" t="n">
-        <v>1715.494559517056</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T16" t="n">
-        <v>1493.537000036599</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U16" t="n">
-        <v>1204.431695578626</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V16" t="n">
-        <v>949.7472073727388</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W16" t="n">
-        <v>660.3300373357781</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X16" t="n">
-        <v>660.3300373357781</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="Y16" t="n">
-        <v>660.3300373357781</v>
+        <v>437.4598847546338</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
@@ -5516,22 +5516,22 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066557</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L17" t="n">
-        <v>1676.49732617665</v>
+        <v>1327.278034693954</v>
       </c>
       <c r="M17" t="n">
-        <v>2192.883804966333</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N17" t="n">
-        <v>2722.239765227109</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.752505936258</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P17" t="n">
-        <v>4285.066269150655</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q17" t="n">
         <v>4733.000021926294</v>
@@ -5595,10 +5595,10 @@
         <v>184.4590143936092</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M18" t="n">
         <v>1277.536404075619</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.6623996499549</v>
+        <v>559.4568932234512</v>
       </c>
       <c r="C19" t="n">
-        <v>656.6623996499549</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D19" t="n">
-        <v>656.6623996499549</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E19" t="n">
-        <v>508.7493060675617</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5695,28 +5695,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.07864997267</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.07864997267</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1710.661941494306</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U19" t="n">
-        <v>1421.556637036333</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="V19" t="n">
-        <v>1166.872148830446</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="W19" t="n">
-        <v>877.454978793485</v>
+        <v>1117.399389645923</v>
       </c>
       <c r="X19" t="n">
-        <v>877.454978793485</v>
+        <v>961.897937197221</v>
       </c>
       <c r="Y19" t="n">
-        <v>656.6623996499549</v>
+        <v>741.1053580536909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>326.5367756216996</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K20" t="n">
-        <v>647.9354707893069</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L20" t="n">
-        <v>1497.045336424299</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M20" t="n">
-        <v>2013.431815213983</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N20" t="n">
-        <v>2975.761230642623</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O20" t="n">
-        <v>3839.273971351772</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5832,22 +5832,22 @@
         <v>184.4590143936092</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.61554392142</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.146616470408</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.669871067689</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1021.923757663617</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C22" t="n">
-        <v>852.9875747357106</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D22" t="n">
-        <v>702.8709353233749</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E22" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
         <v>95.71766921524075</v>
@@ -5932,28 +5932,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T22" t="n">
-        <v>1821.238811302082</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="U22" t="n">
-        <v>1532.133506844108</v>
+        <v>1402.01578603424</v>
       </c>
       <c r="V22" t="n">
-        <v>1532.133506844108</v>
+        <v>1147.331297828353</v>
       </c>
       <c r="W22" t="n">
-        <v>1242.716336807148</v>
+        <v>857.9141277913925</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.716336807148</v>
+        <v>629.9245768933752</v>
       </c>
       <c r="Y22" t="n">
-        <v>1021.923757663617</v>
+        <v>629.9245768933752</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924157</v>
@@ -5990,22 +5990,22 @@
         <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6120443066557</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L23" t="n">
-        <v>1354.237307536702</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M23" t="n">
-        <v>2315.64218448429</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N23" t="n">
-        <v>3277.97159991293</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O23" t="n">
-        <v>3904.333227026026</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P23" t="n">
-        <v>4285.066269150655</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926294</v>
@@ -6069,13 +6069,13 @@
         <v>184.4590143936092</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890737</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>677.6854889954686</v>
+        <v>324.1241452388369</v>
       </c>
       <c r="C25" t="n">
-        <v>508.7493060675617</v>
+        <v>324.1241452388369</v>
       </c>
       <c r="D25" t="n">
-        <v>508.7493060675617</v>
+        <v>174.0075058265012</v>
       </c>
       <c r="E25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6169,28 +6169,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.77411916334</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.77411916334</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.668814705367</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="V25" t="n">
-        <v>1084.98432649948</v>
+        <v>1243.971910147585</v>
       </c>
       <c r="W25" t="n">
-        <v>859.3339538257084</v>
+        <v>954.5547401106242</v>
       </c>
       <c r="X25" t="n">
-        <v>859.3339538257084</v>
+        <v>726.5651892126068</v>
       </c>
       <c r="Y25" t="n">
-        <v>859.3339538257084</v>
+        <v>505.7726100690767</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
@@ -6227,25 +6227,25 @@
         <v>443.7150397139483</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815557</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1200.738998111602</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M26" t="n">
-        <v>2162.14387505919</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N26" t="n">
-        <v>3124.47329048783</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O26" t="n">
-        <v>3904.333227026026</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4285.066269150655</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6303,7 +6303,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K27" t="n">
         <v>488.143009511182</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3701.905519867885</v>
+        <v>510.2133979234425</v>
       </c>
       <c r="C28" t="n">
-        <v>3532.969336939978</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="D28" t="n">
-        <v>3382.852697527642</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="E28" t="n">
-        <v>3234.939603945249</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F28" t="n">
-        <v>3234.939603945249</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="G28" t="n">
-        <v>3067.192078286993</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H28" t="n">
-        <v>3067.192078286993</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004609</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161397</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.446923863252</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R28" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S28" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T28" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U28" t="n">
-        <v>4501.578929952707</v>
+        <v>1684.745651038077</v>
       </c>
       <c r="V28" t="n">
-        <v>4393.763733878615</v>
+        <v>1430.06116283219</v>
       </c>
       <c r="W28" t="n">
-        <v>4104.346563841655</v>
+        <v>1140.64399279523</v>
       </c>
       <c r="X28" t="n">
-        <v>4104.346563841655</v>
+        <v>912.6544418972123</v>
       </c>
       <c r="Y28" t="n">
-        <v>3883.553984698125</v>
+        <v>691.8618627536822</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066557</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1354.237307536702</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M29" t="n">
-        <v>2315.64218448429</v>
+        <v>2896.532435909589</v>
       </c>
       <c r="N29" t="n">
-        <v>3277.97159991293</v>
+        <v>3628.004506520299</v>
       </c>
       <c r="O29" t="n">
-        <v>3795.944346689563</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P29" t="n">
         <v>4495.25810990396</v>
@@ -6494,19 +6494,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629257</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K30" t="n">
         <v>488.143009511182</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6031798381663</v>
+        <v>808.2431309181712</v>
       </c>
       <c r="C31" t="n">
-        <v>868.6031798381663</v>
+        <v>639.3069479902643</v>
       </c>
       <c r="D31" t="n">
-        <v>718.4865404258305</v>
+        <v>489.1903085779286</v>
       </c>
       <c r="E31" t="n">
-        <v>570.5734468434374</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F31" t="n">
-        <v>423.683499345527</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="G31" t="n">
-        <v>255.9359736872713</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H31" t="n">
-        <v>109.3214607755905</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6643,28 +6643,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T31" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.668814705367</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="V31" t="n">
-        <v>1339.668814705367</v>
+        <v>1658.394161766783</v>
       </c>
       <c r="W31" t="n">
-        <v>1050.251644668406</v>
+        <v>1368.976991729822</v>
       </c>
       <c r="X31" t="n">
-        <v>1050.251644668406</v>
+        <v>1210.684174891941</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.251644668406</v>
+        <v>989.891595748411</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>597.7080858612026</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496195</v>
+        <v>1327.278034693954</v>
       </c>
       <c r="M32" t="n">
         <v>2288.682911641542</v>
@@ -6789,7 +6789,7 @@
         <v>1203.680327106302</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.61554392142</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439725</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>901.7029119723212</v>
+        <v>3826.473797349569</v>
       </c>
       <c r="C34" t="n">
-        <v>785.9214609019452</v>
+        <v>3826.473797349569</v>
       </c>
       <c r="D34" t="n">
-        <v>635.8048214896095</v>
+        <v>3676.357157937233</v>
       </c>
       <c r="E34" t="n">
-        <v>487.8917279072164</v>
+        <v>3528.44406435484</v>
       </c>
       <c r="F34" t="n">
-        <v>341.001780409306</v>
+        <v>3381.55411685693</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>3213.806591198674</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976252</v>
+        <v>3067.192078286993</v>
       </c>
       <c r="I34" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004609</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161397</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738837</v>
+        <v>3209.446923863252</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150411</v>
+        <v>3519.494898304409</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239493</v>
+        <v>3856.786138513317</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545533</v>
+        <v>4191.491963334901</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961354</v>
+        <v>4484.630670750722</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.07864997267</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="T34" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="U34" t="n">
-        <v>1532.133506844108</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="V34" t="n">
-        <v>1532.133506844108</v>
+        <v>4746.321562258317</v>
       </c>
       <c r="W34" t="n">
-        <v>1532.133506844108</v>
+        <v>4456.904392221356</v>
       </c>
       <c r="X34" t="n">
-        <v>1304.143955946091</v>
+        <v>4228.914841323339</v>
       </c>
       <c r="Y34" t="n">
-        <v>1083.351376802561</v>
+        <v>4008.122262179809</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924157</v>
       </c>
       <c r="I35" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J35" t="n">
         <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>911.1416242268258</v>
+        <v>597.7080858612027</v>
       </c>
       <c r="L35" t="n">
-        <v>1760.251489861818</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M35" t="n">
-        <v>2721.656366809406</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872423</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.525067779332</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903961</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926295</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S35" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U35" t="n">
         <v>4213.370243053372</v>
@@ -7008,22 +7008,22 @@
         <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589799</v>
       </c>
       <c r="I36" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J36" t="n">
         <v>184.4590143936092</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
         <v>1737.471620890737</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3435.488395927245</v>
+        <v>658.1264915058356</v>
       </c>
       <c r="C37" t="n">
-        <v>3266.552212999338</v>
+        <v>489.1903085779287</v>
       </c>
       <c r="D37" t="n">
-        <v>3116.435573587002</v>
+        <v>489.1903085779287</v>
       </c>
       <c r="E37" t="n">
-        <v>2968.522480004609</v>
+        <v>341.2772149955356</v>
       </c>
       <c r="F37" t="n">
-        <v>2968.522480004609</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="G37" t="n">
-        <v>2968.522480004609</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H37" t="n">
-        <v>2968.522480004609</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I37" t="n">
-        <v>2968.522480004609</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J37" t="n">
-        <v>3010.548472161397</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>3209.446923863252</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L37" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150412</v>
       </c>
       <c r="M37" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N37" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P37" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S37" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T37" t="n">
-        <v>4371.461209142839</v>
+        <v>1691.121090492213</v>
       </c>
       <c r="U37" t="n">
-        <v>4082.355904684866</v>
+        <v>1402.01578603424</v>
       </c>
       <c r="V37" t="n">
-        <v>4082.355904684866</v>
+        <v>1147.331297828353</v>
       </c>
       <c r="W37" t="n">
-        <v>3884.270525968792</v>
+        <v>857.9141277913925</v>
       </c>
       <c r="X37" t="n">
-        <v>3656.280975070775</v>
+        <v>857.9141277913925</v>
       </c>
       <c r="Y37" t="n">
-        <v>3435.488395927245</v>
+        <v>839.7749563360753</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D38" t="n">
         <v>1652.105554591512</v>
@@ -7160,61 +7160,61 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036606</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155751</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924163</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J38" t="n">
         <v>276.3093906935953</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066557</v>
+        <v>597.7080858612027</v>
       </c>
       <c r="L38" t="n">
-        <v>1543.411851794609</v>
+        <v>1327.278034693955</v>
       </c>
       <c r="M38" t="n">
-        <v>2504.816728742197</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N38" t="n">
-        <v>3034.172689002973</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779332</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903961</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926295</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053373</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7245,31 +7245,31 @@
         <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589799</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J39" t="n">
         <v>184.4590143936092</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418654</v>
+        <v>414.2869325418656</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740664</v>
+        <v>769.6414721740666</v>
       </c>
       <c r="M39" t="n">
         <v>1203.680327106302</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.61554392142</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470408</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.669871067689</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>854.9993882778166</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="C40" t="n">
-        <v>854.9993882778166</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="D40" t="n">
-        <v>704.8827488654808</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="E40" t="n">
-        <v>556.9696552830877</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0797077851773</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J40" t="n">
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738837</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150411</v>
+        <v>646.6900875150412</v>
       </c>
       <c r="M40" t="n">
         <v>983.9813277239493</v>
@@ -7366,16 +7366,16 @@
         <v>1117.71125522491</v>
       </c>
       <c r="V40" t="n">
-        <v>1036.647853108056</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W40" t="n">
-        <v>1036.647853108056</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X40" t="n">
-        <v>1036.647853108056</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="Y40" t="n">
-        <v>1036.647853108056</v>
+        <v>573.6095969820626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
         <v>1266.317301993267</v>
@@ -7406,34 +7406,34 @@
         <v>141.5554198924157</v>
       </c>
       <c r="I41" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139483</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K41" t="n">
-        <v>790.1010928348262</v>
+        <v>597.7080858612027</v>
       </c>
       <c r="L41" t="n">
-        <v>1639.210958469819</v>
+        <v>1327.278034693955</v>
       </c>
       <c r="M41" t="n">
-        <v>2600.615835417406</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N41" t="n">
-        <v>3562.945250846046</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O41" t="n">
-        <v>4049.465812105078</v>
+        <v>4114.525067779332</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903961</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926295</v>
       </c>
       <c r="R41" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S41" t="n">
         <v>4673.322552666526</v>
@@ -7445,13 +7445,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7482,19 +7482,19 @@
         <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589799</v>
       </c>
       <c r="I42" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M42" t="n">
         <v>1277.536404075619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.3144713837966</v>
+        <v>681.1876154961236</v>
       </c>
       <c r="C43" t="n">
-        <v>411.3782884558896</v>
+        <v>512.2514325682167</v>
       </c>
       <c r="D43" t="n">
-        <v>411.3782884558896</v>
+        <v>362.134793155881</v>
       </c>
       <c r="E43" t="n">
-        <v>263.4651948734965</v>
+        <v>362.134793155881</v>
       </c>
       <c r="F43" t="n">
-        <v>263.4651948734965</v>
+        <v>362.134793155881</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I43" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J43" t="n">
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738837</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150411</v>
+        <v>646.6900875150412</v>
       </c>
       <c r="M43" t="n">
         <v>983.9813277239493</v>
@@ -7591,28 +7591,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S43" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T43" t="n">
-        <v>1599.281251821625</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U43" t="n">
-        <v>1310.175947363652</v>
+        <v>1855.719868610758</v>
       </c>
       <c r="V43" t="n">
-        <v>1310.175947363652</v>
+        <v>1601.035380404871</v>
       </c>
       <c r="W43" t="n">
-        <v>1020.758777326691</v>
+        <v>1311.618210367911</v>
       </c>
       <c r="X43" t="n">
-        <v>792.7692264286736</v>
+        <v>1083.628659469893</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.9629362140363</v>
+        <v>862.8360803263633</v>
       </c>
     </row>
     <row r="44">
@@ -7643,34 +7643,34 @@
         <v>141.5554198924157</v>
       </c>
       <c r="I44" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J44" t="n">
         <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612026</v>
+        <v>604.6058461270989</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496195</v>
+        <v>1453.715711762091</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443782</v>
+        <v>1970.102190551775</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872422</v>
+        <v>2932.431605980415</v>
       </c>
       <c r="O44" t="n">
-        <v>4049.465812105078</v>
+        <v>3795.944346689564</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903961</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926295</v>
       </c>
       <c r="R44" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S44" t="n">
         <v>4673.322552666526</v>
@@ -7719,22 +7719,22 @@
         <v>197.3489189817664</v>
       </c>
       <c r="H45" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589799</v>
       </c>
       <c r="I45" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J45" t="n">
         <v>184.4590143936092</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418654</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740664</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N45" t="n">
         <v>1737.471620890737</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>539.3387690371677</v>
+        <v>795.1897801060373</v>
       </c>
       <c r="C46" t="n">
-        <v>539.3387690371677</v>
+        <v>626.2535971781305</v>
       </c>
       <c r="D46" t="n">
-        <v>389.222129624832</v>
+        <v>626.2535971781305</v>
       </c>
       <c r="E46" t="n">
-        <v>389.222129624832</v>
+        <v>626.2535971781305</v>
       </c>
       <c r="F46" t="n">
-        <v>242.3321821269216</v>
+        <v>479.3636496802201</v>
       </c>
       <c r="G46" t="n">
-        <v>242.3321821269216</v>
+        <v>311.6161240219643</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>165.0016111102835</v>
       </c>
       <c r="I46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J46" t="n">
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738837</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150411</v>
+        <v>646.6900875150412</v>
       </c>
       <c r="M46" t="n">
         <v>983.9813277239493</v>
@@ -7828,28 +7828,28 @@
         <v>1913.07864997267</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.77411916334</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682883</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1406.816559682883</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="V46" t="n">
-        <v>1152.132071476996</v>
+        <v>1243.971910147585</v>
       </c>
       <c r="W46" t="n">
-        <v>862.7149014400356</v>
+        <v>1243.971910147585</v>
       </c>
       <c r="X46" t="n">
-        <v>634.7253505420183</v>
+        <v>1015.982359249567</v>
       </c>
       <c r="Y46" t="n">
-        <v>539.3387690371677</v>
+        <v>795.1897801060373</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>260.0527905534107</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>74.60209794880461</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>77.88388639949079</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8939,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L15" t="n">
-        <v>74.60209794880461</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>325.5151703433816</v>
+        <v>296.913823841116</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>74.60209794880467</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.73473225061039</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.60209794880473</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990551</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>141.2536018727927</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>74.60209794880495</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>296.3023992718838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>74.60209794880461</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>204.1576872221565</v>
       </c>
       <c r="O29" t="n">
-        <v>31.76988436121394</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>74.60209794880461</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>296.913823841116</v>
       </c>
       <c r="M32" t="n">
-        <v>328.766142783498</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>74.60209794880495</v>
       </c>
       <c r="O33" t="n">
-        <v>74.60209794880484</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5995337026496</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,10 +10595,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534117</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>74.60209794880495</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>191.0853982403103</v>
+        <v>296.9138238411168</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>74.6020979488045</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.60209794880473</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990551</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>25.23975550835405</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411168</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>74.60209794880467</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.967434612016348</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>194.3363706804282</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>74.60209794880495</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.2513506536518</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.0473572412045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.3146728231694</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.85323595017866</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.9214402838827</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>19.34544249207161</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>71.76321746482262</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>113.2633983439936</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.67459770624548</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>68.92702440142131</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.12912938955736</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>60.16458246814665</v>
       </c>
       <c r="V28" t="n">
-        <v>145.4005992104774</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>84.21514865481437</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>68.99976671953453</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>52.62318453895564</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
@@ -25129,13 +25129,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>212.9713638051444</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
@@ -25330,7 +25330,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>90.9214402838827</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>90.41847340767771</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>200.6268736113308</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>81.20936001757539</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>171.8848752281428</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956058</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>229.4290578651009</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.0864260396039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956058</v>
+        <v>29.09179982346831</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.1519376622927</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>843379.1349843189</v>
+        <v>843379.1349843187</v>
       </c>
     </row>
     <row r="14">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516045</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516046</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>574938.487992355</v>
       </c>
       <c r="F2" t="n">
-        <v>574938.4879923547</v>
+        <v>574938.4879923549</v>
       </c>
       <c r="G2" t="n">
-        <v>574938.4879923547</v>
+        <v>574938.487992355</v>
       </c>
       <c r="H2" t="n">
         <v>574938.487992355</v>
       </c>
       <c r="I2" t="n">
-        <v>574938.4879923549</v>
+        <v>574938.4879923551</v>
       </c>
       <c r="J2" t="n">
-        <v>574938.4879923551</v>
+        <v>574938.4879923548</v>
       </c>
       <c r="K2" t="n">
         <v>574938.487992355</v>
@@ -26344,16 +26344,16 @@
         <v>574938.4879923549</v>
       </c>
       <c r="M2" t="n">
-        <v>574938.487992355</v>
+        <v>574938.4879923549</v>
       </c>
       <c r="N2" t="n">
         <v>574938.4879923549</v>
       </c>
       <c r="O2" t="n">
-        <v>574938.4879923549</v>
+        <v>574938.4879923553</v>
       </c>
       <c r="P2" t="n">
-        <v>574938.4879923551</v>
+        <v>574938.487992355</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424858</v>
       </c>
       <c r="F4" t="n">
-        <v>30423.78310725547</v>
+        <v>31326.89207424858</v>
       </c>
       <c r="G4" t="n">
-        <v>30423.7831072555</v>
+        <v>31326.89207424857</v>
       </c>
       <c r="H4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424858</v>
       </c>
       <c r="I4" t="n">
-        <v>30423.7831072555</v>
+        <v>31326.89207424858</v>
       </c>
       <c r="J4" t="n">
-        <v>30423.7831072555</v>
+        <v>31326.89207424856</v>
       </c>
       <c r="K4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424857</v>
       </c>
       <c r="L4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424858</v>
       </c>
       <c r="M4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424859</v>
       </c>
       <c r="N4" t="n">
-        <v>30423.78310725547</v>
+        <v>31326.89207424859</v>
       </c>
       <c r="O4" t="n">
-        <v>30423.78310725547</v>
+        <v>31326.89207424859</v>
       </c>
       <c r="P4" t="n">
-        <v>30423.78310725548</v>
+        <v>31326.89207424859</v>
       </c>
     </row>
     <row r="5">
@@ -26500,16 +26500,16 @@
         <v>95967.71339206918</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-285398.2283668373</v>
+        <v>-287494.0895893829</v>
       </c>
       <c r="C6" t="n">
-        <v>304569.6508477078</v>
+        <v>302473.7896251619</v>
       </c>
       <c r="D6" t="n">
-        <v>304569.6508477075</v>
+        <v>302473.7896251625</v>
       </c>
       <c r="E6" t="n">
-        <v>-259704.1052587976</v>
+        <v>-260607.2142257907</v>
       </c>
       <c r="F6" t="n">
-        <v>448546.99149303</v>
+        <v>447643.8825260372</v>
       </c>
       <c r="G6" t="n">
-        <v>448546.99149303</v>
+        <v>447643.8825260373</v>
       </c>
       <c r="H6" t="n">
-        <v>448546.9914930303</v>
+        <v>447643.8825260373</v>
       </c>
       <c r="I6" t="n">
-        <v>448546.9914930302</v>
+        <v>447643.8825260374</v>
       </c>
       <c r="J6" t="n">
-        <v>272123.7723004374</v>
+        <v>271220.6633334444</v>
       </c>
       <c r="K6" t="n">
-        <v>448546.9914930303</v>
+        <v>447643.8825260373</v>
       </c>
       <c r="L6" t="n">
-        <v>448546.9914930302</v>
+        <v>447643.8825260372</v>
       </c>
       <c r="M6" t="n">
-        <v>318416.7515236209</v>
+        <v>317513.6425566277</v>
       </c>
       <c r="N6" t="n">
-        <v>448546.9914930302</v>
+        <v>447643.8825260371</v>
       </c>
       <c r="O6" t="n">
-        <v>448546.9914930302</v>
+        <v>447643.8825260375</v>
       </c>
       <c r="P6" t="n">
-        <v>448546.9914930305</v>
+        <v>447643.8825260372</v>
       </c>
     </row>
   </sheetData>
@@ -26820,16 +26820,16 @@
         <v>1196.470865190509</v>
       </c>
       <c r="M4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="N4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="O4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="P4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545546</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>281.1539702597869</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.5546477434696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.3696098403536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>65.6517268778324</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>221.5064402242709</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>143.6345521470148</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>16.63754732114094</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.70202071405299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>14.94931854518211</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>160.1931355603109</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>249.6555970034404</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K8" t="n">
         <v>297.223041434342</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K11" t="n">
-        <v>584.6979371873575</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L11" t="n">
         <v>857.6867329646388</v>
@@ -35422,7 +35422,7 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626581</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P11" t="n">
         <v>384.578830428918</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K12" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264657</v>
@@ -35647,10 +35647,10 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K14" t="n">
-        <v>402.5290330334376</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M14" t="n">
         <v>971.1160373207955</v>
@@ -35659,16 +35659,16 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626581</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K15" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L15" t="n">
-        <v>433.5460773752703</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M15" t="n">
         <v>438.4230857901369</v>
@@ -35884,25 +35884,25 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051115</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L17" t="n">
-        <v>765.54068875757</v>
+        <v>736.9393422553044</v>
       </c>
       <c r="M17" t="n">
-        <v>521.602503827963</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901623996</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O17" t="n">
         <v>872.2350916254035</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R17" t="n">
         <v>53.41761498559998</v>
@@ -35963,13 +35963,13 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K18" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264657</v>
       </c>
       <c r="M18" t="n">
-        <v>513.0251837389416</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N18" t="n">
         <v>464.5810270859778</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>233.1506125317766</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K20" t="n">
         <v>324.6451466339468</v>
@@ -36127,22 +36127,22 @@
         <v>857.6867329646388</v>
       </c>
       <c r="M20" t="n">
-        <v>521.602503827963</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N20" t="n">
         <v>972.0499145743838</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254035</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P20" t="n">
         <v>384.578830428918</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K21" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264657</v>
@@ -36218,7 +36218,7 @@
         <v>303.5588430275569</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594869</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051115</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207955</v>
@@ -36370,13 +36370,13 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6885122354508</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P23" t="n">
         <v>384.578830428918</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R23" t="n">
         <v>53.41761498559998</v>
@@ -36437,7 +36437,7 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K24" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264657</v>
@@ -36446,7 +36446,7 @@
         <v>438.4230857901369</v>
       </c>
       <c r="N24" t="n">
-        <v>539.1831250347827</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O24" t="n">
         <v>402.5566389383717</v>
@@ -36595,28 +36595,28 @@
         <v>351.51249545324</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339468</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141884</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207955</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743838</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O26" t="n">
-        <v>787.7373096345419</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P26" t="n">
-        <v>384.578830428918</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q26" t="n">
         <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498559998</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K27" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264657</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811662</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K29" t="n">
         <v>648.7905592051115</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141884</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M29" t="n">
         <v>971.1160373207955</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743838</v>
+        <v>738.8606773845561</v>
       </c>
       <c r="O29" t="n">
-        <v>523.2047947238721</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1433454771047</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.239820351197</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K30" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264657</v>
@@ -37072,10 +37072,10 @@
         <v>324.6451466339468</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646388</v>
+        <v>736.9393422553044</v>
       </c>
       <c r="M32" t="n">
-        <v>850.368646611461</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N32" t="n">
         <v>972.0499145743838</v>
@@ -37157,10 +37157,10 @@
         <v>438.4230857901369</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859778</v>
+        <v>539.1831250347827</v>
       </c>
       <c r="O33" t="n">
-        <v>477.1587368871766</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P33" t="n">
         <v>303.5588430275569</v>
@@ -37306,7 +37306,7 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K35" t="n">
-        <v>641.2446803365964</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L35" t="n">
         <v>857.6867329646388</v>
@@ -37315,10 +37315,10 @@
         <v>971.1160373207955</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901623996</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254035</v>
+        <v>751.4877009160698</v>
       </c>
       <c r="P35" t="n">
         <v>384.578830428918</v>
@@ -37385,7 +37385,7 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K36" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197705</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264657</v>
@@ -37394,7 +37394,7 @@
         <v>438.4230857901369</v>
       </c>
       <c r="N36" t="n">
-        <v>539.1831250347827</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O36" t="n">
         <v>402.5566389383717</v>
@@ -37543,28 +37543,28 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051115</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L38" t="n">
-        <v>631.1109166544987</v>
+        <v>736.9393422553052</v>
       </c>
       <c r="M38" t="n">
         <v>971.1160373207955</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901623996</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4349103626581</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004006</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>438.4230857901369</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859778</v>
+        <v>539.1831250347823</v>
       </c>
       <c r="O39" t="n">
         <v>402.5566389383717</v>
@@ -37640,7 +37640,7 @@
         <v>303.5588430275569</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.0997147594869</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K41" t="n">
-        <v>349.8849021423009</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646388</v>
+        <v>736.9393422553052</v>
       </c>
       <c r="M41" t="n">
         <v>971.1160373207955</v>
@@ -37792,7 +37792,7 @@
         <v>972.0499145743838</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626581</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P41" t="n">
         <v>384.578830428918</v>
@@ -37801,7 +37801,7 @@
         <v>240.1433454771047</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239234</v>
+        <v>164.2398203511969</v>
       </c>
       <c r="K42" t="n">
         <v>232.149412270966</v>
@@ -37865,7 +37865,7 @@
         <v>358.9439794264657</v>
       </c>
       <c r="M42" t="n">
-        <v>513.0251837389416</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N42" t="n">
         <v>464.5810270859778</v>
@@ -38017,28 +38017,28 @@
         <v>182.4158802811662</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339468</v>
+        <v>331.6125812459632</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646388</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207955</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N44" t="n">
         <v>972.0499145743838</v>
       </c>
       <c r="O44" t="n">
-        <v>685.7712810430863</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P44" t="n">
-        <v>384.578830428918</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q44" t="n">
         <v>240.1433454771047</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585824</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>89.63772240239234</v>
       </c>
       <c r="K45" t="n">
-        <v>232.149412270966</v>
+        <v>306.7515102197705</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264657</v>
@@ -38105,7 +38105,7 @@
         <v>438.4230857901369</v>
       </c>
       <c r="N45" t="n">
-        <v>539.1831250347827</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O45" t="n">
         <v>402.5566389383717</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2200496.078962616</v>
+        <v>2194755.9642544</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.88270951</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9936793.283251338</v>
+        <v>9936793.283251336</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>62.28123445669238</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958792</v>
+        <v>154.653050177988</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174315</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164567</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.606263845796</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356718</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100811</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>15.20174324431709</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848758</v>
+        <v>54.30080173848778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>150.1325662085132</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>140.3538204417182</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>83.37783910655995</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>155.129259804137</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.98569063694849</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>200.4661980682389</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>294.8613066552056</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.37568956786215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.7640381573251</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5849346967025</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.5241096174609</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>118.6339115251869</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>76.93628836873204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>110.9682788846984</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>147.9212967840876</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>241.2361896605731</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.17400253769641</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>136.0325688578954</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>122.729107446237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.487860919358629</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.6535623097957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040984184</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>223.321632315734</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.38006817584793</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>228.6167141990305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>88.71883721364188</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>144.8192118989156</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.3215416784212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1792.529112126906</v>
+        <v>951.9112172913285</v>
       </c>
       <c r="C2" t="n">
-        <v>1792.529112126906</v>
+        <v>582.9487003509169</v>
       </c>
       <c r="D2" t="n">
-        <v>1434.263413520156</v>
+        <v>224.6830017441663</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>224.6830017441663</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>217.7375009949629</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738259</v>
+        <v>203.5242284136876</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307497</v>
+        <v>203.5242284136876</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369994</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015918</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060728</v>
+        <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927221</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689017</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811687</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633679</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.67339805414</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684997</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684997</v>
+        <v>2292.214167804441</v>
       </c>
       <c r="S2" t="n">
-        <v>2182.668444102718</v>
+        <v>2109.431301222162</v>
       </c>
       <c r="T2" t="n">
-        <v>2182.668444102718</v>
+        <v>1889.527734748511</v>
       </c>
       <c r="U2" t="n">
-        <v>2182.668444102718</v>
+        <v>1635.742759905013</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.668444102718</v>
+        <v>1304.679872561443</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.668444102718</v>
+        <v>951.9112172913285</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.668444102718</v>
+        <v>951.9112172913285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.529112126906</v>
+        <v>951.9112172913285</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>878.8067828309752</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>704.3537535498482</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>555.4193438885969</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>396.1818888831414</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>249.6473309100264</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>114.6915088435658</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369994</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683014</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138139</v>
+        <v>278.0105538592118</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568476</v>
+        <v>649.6216244022446</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459037</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101586</v>
+        <v>1649.445493246982</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191459</v>
+        <v>2053.415090336854</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695918</v>
+        <v>2360.633238912862</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684997</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885999</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.55478592679</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087522</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549732</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1716.871275549732</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1462.63391882153</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1254.782418615997</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1047.022119851043</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2002.887195741752</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="C4" t="n">
-        <v>2002.887195741752</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="D4" t="n">
-        <v>1852.770556329416</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="E4" t="n">
-        <v>1852.770556329416</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="F4" t="n">
-        <v>1852.770556329416</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="G4" t="n">
-        <v>1852.770556329416</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="H4" t="n">
-        <v>1852.770556329416</v>
+        <v>242.3974393348134</v>
       </c>
       <c r="I4" t="n">
-        <v>1852.770556329416</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>1797.921261644075</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="K4" t="n">
-        <v>1839.417529532192</v>
+        <v>88.80529410181606</v>
       </c>
       <c r="L4" t="n">
-        <v>1948.044900366943</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>2072.966355325437</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>2200.352073720052</v>
+        <v>449.7398382896745</v>
       </c>
       <c r="O4" t="n">
-        <v>2301.997107118971</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>2365.451310684997</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.451310684997</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="V4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="W4" t="n">
-        <v>2365.451310684997</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="X4" t="n">
-        <v>2223.679774885282</v>
+        <v>463.1900184783435</v>
       </c>
       <c r="Y4" t="n">
-        <v>2002.887195741752</v>
+        <v>242.3974393348134</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1060.880600723209</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>702.6149021164581</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>702.6149021164581</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>291.6289973268505</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2485.424179524335</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2485.424179524335</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2485.424179524335</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>2111.958421263255</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2344.280697856589</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.280697856589</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.280697856589</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208126</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>999.1036114208126</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>999.1036114208126</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4287.215095036336</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5348,22 +5348,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>875.4238276939707</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C16" t="n">
-        <v>706.4876447660638</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1764.65758193153</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1475.240411894569</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1247.250860996552</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>1026.458281853022</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,25 +5518,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>786.6724891157196</v>
+        <v>848.050910509603</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5557,10 +5557,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>383.0961049375006</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>383.0961049375006</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>383.0961049375006</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>215.3932683122196</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5709,16 +5709,16 @@
         <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052697</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W19" t="n">
-        <v>1120.662598458018</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.662598458018</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y19" t="n">
-        <v>1120.662598458018</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.2936040684043</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
         <v>263.2638710736754</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1844.254295514099</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.487680083625</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1333.384813209269</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1078.700325003382</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>789.2831549664216</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>561.2936040684043</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>561.2936040684043</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -5989,25 +5989,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.866433243363</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C25" t="n">
-        <v>391.866433243363</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D25" t="n">
-        <v>391.866433243363</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E25" t="n">
-        <v>391.866433243363</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>244.9764857454526</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>1229.996508151736</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.866433243363</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.7083461157126</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1507.339758221763</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.1255161526733</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C31" t="n">
-        <v>613.1893332247664</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>463.0726938124307</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>463.0726938124307</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442026</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926988</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1954.840576287166</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1763.154692113992</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1541.388076683519</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1252.285209809162</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>997.6007216032754</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.556111024461</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.566560126443</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.773980982913</v>
+        <v>708.1835515663147</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6715,37 +6715,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4602.671026182878</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4380.904410752403</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>4091.801543878047</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>3837.11705567216</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3547.699885635199</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3319.710334737182</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3098.917755593652</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,10 +6925,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>508.0400813400981</v>
+        <v>973.7726509601118</v>
       </c>
       <c r="C37" t="n">
-        <v>339.1038984121913</v>
+        <v>804.8364680322049</v>
       </c>
       <c r="D37" t="n">
-        <v>339.1038984121913</v>
+        <v>654.7198286198692</v>
       </c>
       <c r="E37" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374761</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374761</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121951</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>192.8867116300528</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>1194.565230103642</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>1194.565230103642</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459524</v>
+        <v>973.7726509601118</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7180,22 +7180,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1728.132337365293</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1439.029470490936</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V40" t="n">
-        <v>1184.344982285049</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W40" t="n">
-        <v>894.9278122480886</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X40" t="n">
-        <v>666.9382613500712</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.1456822065411</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7426,37 +7426,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.220281864028</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.57685067423</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1503.650876735815</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>1503.650876735815</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>1275.661325837798</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y43" t="n">
-        <v>1054.868746694268</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3400.125497098742</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C46" t="n">
-        <v>3231.189314170835</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D46" t="n">
-        <v>3231.189314170835</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>3231.189314170835</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>3231.189314170835</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4556.285106989247</v>
+        <v>1528.545092467931</v>
       </c>
       <c r="U46" t="n">
-        <v>4267.18224011489</v>
+        <v>1239.442225593575</v>
       </c>
       <c r="V46" t="n">
-        <v>4267.18224011489</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="W46" t="n">
-        <v>3977.76507007793</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="X46" t="n">
-        <v>3749.775519179912</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y46" t="n">
-        <v>3581.773961928982</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262988</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640301</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>185.3870697685868</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>1.01747575565679</v>
+        <v>63.01588120402386</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>288.0478149561042</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1996354507097</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>11.64153443578789</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.06794202461217</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.84902794986665</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.30787056447642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.12110338913388</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>209.586709967859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8301120625275</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>78.80074644674349</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>18.10451147494064</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>45.2868086760179</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.85180572133181</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>53.73645647354653</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>22.69194057669425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>87.44429175068871</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.17841787214164</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>63.20136602085702</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>183.388957155594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>23.52092912479748</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.8658161384529</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.7297373772536</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.26311167367356</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911655.8493914093</v>
+        <v>911655.8493914092</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415312</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="H2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="I2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="I2" t="n">
-        <v>575768.5909861259</v>
-      </c>
       <c r="J2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="K2" t="n">
         <v>575768.5909861255</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="M2" t="n">
         <v>575768.5909861255</v>
@@ -26352,7 +26352,7 @@
         <v>575768.5909861258</v>
       </c>
       <c r="O2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="P2" t="n">
         <v>575768.5909861256</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106499</v>
+        <v>493391.6844106478</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446729</v>
+        <v>91792.63957446933</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832164</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220037</v>
+        <v>21342.09858220088</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760451</v>
+        <v>235704.9591760457</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26432,31 +26432,31 @@
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
+        <v>28561.83935289571</v>
+      </c>
+      <c r="L4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="L4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="M4" t="n">
+        <v>28561.83935289571</v>
+      </c>
+      <c r="N4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="N4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
         <v>28561.83935289575</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140136</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26496,13 +26496,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210102.4665664914</v>
+        <v>-210102.4665664894</v>
       </c>
       <c r="C6" t="n">
-        <v>210681.1500506948</v>
+        <v>210681.1500506928</v>
       </c>
       <c r="D6" t="n">
-        <v>302473.789625162</v>
+        <v>302473.7896251617</v>
       </c>
       <c r="E6" t="n">
-        <v>-276554.1806138903</v>
+        <v>-277226.1355161482</v>
       </c>
       <c r="F6" t="n">
-        <v>450823.2333795166</v>
+        <v>450151.2784772586</v>
       </c>
       <c r="G6" t="n">
-        <v>450823.233379516</v>
+        <v>450151.2784772585</v>
       </c>
       <c r="H6" t="n">
-        <v>450823.2333795163</v>
+        <v>450151.2784772586</v>
       </c>
       <c r="I6" t="n">
-        <v>450823.2333795165</v>
+        <v>450151.2784772584</v>
       </c>
       <c r="J6" t="n">
-        <v>296096.6976963</v>
+        <v>295424.7427940424</v>
       </c>
       <c r="K6" t="n">
-        <v>429481.1347973158</v>
+        <v>428809.1798950573</v>
       </c>
       <c r="L6" t="n">
-        <v>450823.2333795162</v>
+        <v>450151.2784772582</v>
       </c>
       <c r="M6" t="n">
-        <v>321180.9185405714</v>
+        <v>320508.9636383134</v>
       </c>
       <c r="N6" t="n">
-        <v>450823.2333795163</v>
+        <v>450151.2784772584</v>
       </c>
       <c r="O6" t="n">
-        <v>450823.2333795162</v>
+        <v>450151.2784772585</v>
       </c>
       <c r="P6" t="n">
-        <v>450823.2333795162</v>
+        <v>450151.2784772583</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435512</v>
+        <v>306.3599178435496</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712493</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435512</v>
+        <v>306.3599178435496</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353553</v>
+        <v>71.38374637353712</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712493</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9244450833063</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712493</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833063</v>
+        <v>82.92444508330834</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712493</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833063</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>319.6491356155694</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.341670617891538</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174276</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.078290475260587</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>182.306902766559</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514145</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731816</v>
+        <v>39.9016956573184</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631661</v>
+        <v>2.320560354653111</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>85.35583494731895</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>330.406330914235</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>96.09490770415226</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>125.6297823812639</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>86.05680026835213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>32.89095181492928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>161.2089637842327</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-3.758651504979532e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672567</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212167</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452667</v>
+        <v>47.48116877452642</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676346</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015744</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787787</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589807</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095254</v>
+        <v>219.7570494095243</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811563</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579898</v>
+        <v>177.1052829579889</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.998691770966</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940693</v>
+        <v>77.36434648940653</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978864</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216663</v>
+        <v>5.391318755216635</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0985278127738053</v>
+        <v>0.09852781277380479</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540534</v>
+        <v>0.65896284215405</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014149</v>
+        <v>6.364193765014115</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478479</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403714</v>
+        <v>62.25753764403682</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683587</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.078752196651</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247354</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302334</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382936</v>
+        <v>156.7840232382928</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723824</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338409</v>
+        <v>84.11602876338365</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163502</v>
+        <v>40.91349997163481</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422112</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945504</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276669</v>
+        <v>0.04335281856276647</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.55245231086542</v>
+        <v>0.5524523108654172</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967102</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584373</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781852</v>
+        <v>39.05837837818499</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509152</v>
+        <v>64.18491393509119</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448256</v>
+        <v>82.13459174448214</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502216</v>
+        <v>86.5994108750217</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361474</v>
+        <v>84.5402704436143</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395958</v>
+        <v>78.08662299395918</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230496</v>
+        <v>66.81659585230462</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437622</v>
+        <v>46.26034759437599</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400334</v>
+        <v>24.84026481400321</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263727</v>
+        <v>9.627737090263675</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515885</v>
+        <v>2.360478055515873</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084113</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302208</v>
+        <v>92.58102251302152</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277585</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592419</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245405</v>
+        <v>435.4250728245394</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249186</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022215</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742029</v>
+        <v>267.670995374202</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564212</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777928</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065783</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202359</v>
+        <v>375.3647177202352</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527169</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904536</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705787</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076629</v>
+        <v>310.3213621979887</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132117</v>
+        <v>4.866739163765147</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920866</v>
+        <v>41.91542210920834</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047987</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368627</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228433</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079993</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719844</v>
+        <v>64.0951551171981</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,13 +35661,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>436.1813745723063</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35886,13 +35886,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>338.2087623110573</v>
+        <v>400.2071677594244</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35901,13 +35901,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115047</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443158</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>644.1207512809365</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38028,10 +38028,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>563.9433698486994</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2194755.9642544</v>
+        <v>2198161.45537885</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9936793.283251336</v>
+        <v>9936793.283251338</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60.60998528608595</v>
       </c>
       <c r="I2" t="n">
-        <v>154.653050177988</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174315</v>
+        <v>72.50477145174311</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.8712504714823</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>13.62198573550654</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.20174324431709</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>136.5161668967619</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848778</v>
+        <v>54.30080173848776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>150.1325662085132</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>83.37783910655995</v>
+        <v>356.6516950018828</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>22.98569063694849</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2634945072138</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>150.8400357509148</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.5849346967025</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>2.41584344420861</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534529</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.75769145492404</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>234.0075547026443</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6339115251869</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479897</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C22" t="n">
-        <v>36.41670903610036</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>7.601081015446814</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>241.2361896605731</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>136.0325688578954</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>107.4815339940118</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.487860919358629</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3444,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040984184</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>107.1494876087222</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>223.321632315734</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>128.2808324720647</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.71883721364188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>144.8192118989156</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.9112172913285</v>
+        <v>1425.599758608477</v>
       </c>
       <c r="C2" t="n">
-        <v>582.9487003509169</v>
+        <v>1056.637241668066</v>
       </c>
       <c r="D2" t="n">
-        <v>224.6830017441663</v>
+        <v>698.3715430613154</v>
       </c>
       <c r="E2" t="n">
-        <v>224.6830017441663</v>
+        <v>698.3715430613154</v>
       </c>
       <c r="F2" t="n">
-        <v>217.7375009949629</v>
+        <v>287.3856382717078</v>
       </c>
       <c r="G2" t="n">
-        <v>203.5242284136876</v>
+        <v>273.1723656904326</v>
       </c>
       <c r="H2" t="n">
-        <v>203.5242284136876</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J2" t="n">
         <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060714</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689014</v>
@@ -4348,34 +4348,34 @@
         <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="S2" t="n">
         <v>2109.431301222162</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748511</v>
+        <v>2109.431301222162</v>
       </c>
       <c r="U2" t="n">
-        <v>1635.742759905013</v>
+        <v>2109.431301222162</v>
       </c>
       <c r="V2" t="n">
-        <v>1304.679872561443</v>
+        <v>1778.368413878592</v>
       </c>
       <c r="W2" t="n">
-        <v>951.9112172913285</v>
+        <v>1425.599758608477</v>
       </c>
       <c r="X2" t="n">
-        <v>951.9112172913285</v>
+        <v>1425.599758608477</v>
       </c>
       <c r="Y2" t="n">
-        <v>951.9112172913285</v>
+        <v>1425.599758608477</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>850.791617806416</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>676.338588525289</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>527.4041788640377</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>368.1667238585821</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J3" t="n">
-        <v>47.3090262136998</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592118</v>
+        <v>338.906390713813</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022446</v>
+        <v>710.517461256846</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604433</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246982</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336854</v>
+        <v>1905.563735119903</v>
       </c>
       <c r="P3" t="n">
-        <v>2360.633238912862</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2351.691729133974</v>
       </c>
       <c r="S3" t="n">
-        <v>2305.608548885992</v>
+        <v>2351.691729133974</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>2152.188046294705</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1924.008218756915</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1688.856110525172</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1434.618753796971</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1226.767253591438</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>1019.006954826484</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="C4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="D4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="E4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="F4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="G4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="H4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
       <c r="I4" t="n">
         <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181606</v>
+        <v>88.80529410181609</v>
       </c>
       <c r="L4" t="n">
         <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896745</v>
+        <v>449.7398382896747</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="S4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="T4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="U4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="V4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="W4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="X4" t="n">
-        <v>463.1900184783435</v>
+        <v>460.8460181201083</v>
       </c>
       <c r="Y4" t="n">
-        <v>242.3974393348134</v>
+        <v>240.0534389765782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1429.84311766362</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.880600723209</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D5" t="n">
-        <v>702.6149021164581</v>
+        <v>978.6490999905216</v>
       </c>
       <c r="E5" t="n">
-        <v>702.6149021164581</v>
+        <v>978.6490999905216</v>
       </c>
       <c r="F5" t="n">
-        <v>291.6289973268505</v>
+        <v>567.6631952009141</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1816.442957727742</v>
+        <v>2092.477155601805</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862886</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C8" t="n">
-        <v>2096.980396922474</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D8" t="n">
-        <v>1738.714698315724</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>1352.926445717479</v>
+        <v>631.2159631470527</v>
       </c>
       <c r="F8" t="n">
-        <v>941.9405409278718</v>
+        <v>220.2300583574451</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>206.306654296036</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>206.306654296036</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5047,40 +5047,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q11" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.3568109459524</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C13" t="n">
-        <v>505.4206280180455</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D13" t="n">
-        <v>505.4206280180455</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
         <v>388.668168728447</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1732.136604770989</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1477.452116565102</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1188.034946528141</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,19 +5284,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710053</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3573.86000758939</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P14" t="n">
-        <v>4287.215095036336</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5323,7 +5323,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5381,16 +5381,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5475,13 +5475,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>848.050910509603</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1299.085123758012</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>1832.617028429936</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
         <v>4405.689038432984</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>383.0961049375006</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>383.0961049375006</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>383.0961049375006</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>215.3932683122196</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258584</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.643339221624</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>935.6537883236062</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.8612091800761</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710459</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5791,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>300.048425655595</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710459</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>827.5554641779659</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C25" t="n">
-        <v>658.619281250059</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>508.5026418377232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.986059049753</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X25" t="n">
-        <v>1229.996508151736</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y25" t="n">
-        <v>1009.203929008206</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763014</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1729.106373652236</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1507.339758221763</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.236891347406</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5524031415191</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>674.1352331045584</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1456822065411</v>
+        <v>792.8051195024677</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.1456822065411</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.866738172571</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844496</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903278</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232733</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6533,34 +6533,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442026</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482926988</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1954.840576287166</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1763.154692113992</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1541.388076683519</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1252.285209809162</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>997.6007216032754</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>708.1835515663147</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>708.1835515663147</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.1835515663147</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,40 +6779,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,34 +6873,34 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
         <v>277.2094992786341</v>
@@ -6925,10 +6925,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>425.1871727453699</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1079.910504880669</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1530.944718129078</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.15366264131</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N35" t="n">
-        <v>3082.932479700092</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>3585.904950579429</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4299.260038026375</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.7726509601118</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C37" t="n">
-        <v>804.8364680322049</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D37" t="n">
-        <v>654.7198286198692</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374761</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374761</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121951</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300528</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1758.281203196855</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.827124689058</v>
+        <v>1469.178336322499</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.142636483171</v>
+        <v>1214.493848116612</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.565230103642</v>
+        <v>925.0766780796513</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.565230103642</v>
+        <v>925.0766780796513</v>
       </c>
       <c r="Y37" t="n">
-        <v>973.7726509601118</v>
+        <v>704.2840989361212</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.949150983575</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,13 +7399,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,19 +7414,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
         <v>263.2638710736754</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W43" t="n">
-        <v>931.4530568143261</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X43" t="n">
-        <v>703.4635059163088</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.848518831822</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.3166934139181</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
         <v>263.2638710736754</v>
@@ -7797,13 +7797,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1528.545092467931</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1239.442225593575</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V46" t="n">
-        <v>984.7577373876879</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W46" t="n">
-        <v>984.7577373876879</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X46" t="n">
-        <v>984.7577373876879</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.9651582441578</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262988</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>183.0065697095041</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.73248448640301</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>185.3870697685868</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>63.01588120402386</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>23.80814351663741</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>410.4190035206666</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>189.7998007892655</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561042</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>410.4190035206676</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>132.999017557013</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>142.1686942807577</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>173.2204606877393</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>316.9032015413819</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.84902794986665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>283.7959947614042</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26811680410418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>52.51544363394675</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>26.12110338913388</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>91.26811680410505</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C22" t="n">
-        <v>130.8301120625275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>159.645740083181</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>45.2868086760179</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>53.73645647354653</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>118.2281213950254</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.44429175068871</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>112.399461667447</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>63.20136602085702</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410449</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.8658161384529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>74.7297373772536</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841786.5885415312</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861261</v>
       </c>
       <c r="I2" t="n">
         <v>575768.5909861258</v>
@@ -26340,22 +26340,22 @@
         <v>575768.5909861256</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="M2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="N2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="O2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861256</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106478</v>
+        <v>493391.6844106481</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446933</v>
+        <v>91792.63957446897</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220088</v>
+        <v>21342.09858220075</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="O4" t="n">
         <v>28561.83935289576</v>
@@ -26484,19 +26484,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210102.4665664894</v>
+        <v>-210102.4665664898</v>
       </c>
       <c r="C6" t="n">
-        <v>210681.1500506928</v>
+        <v>210681.1500506929</v>
       </c>
       <c r="D6" t="n">
-        <v>302473.7896251617</v>
+        <v>302473.7896251621</v>
       </c>
       <c r="E6" t="n">
-        <v>-277226.1355161482</v>
+        <v>-276621.3761041161</v>
       </c>
       <c r="F6" t="n">
-        <v>450151.2784772586</v>
+        <v>450756.0378892905</v>
       </c>
       <c r="G6" t="n">
-        <v>450151.2784772585</v>
+        <v>450756.0378892908</v>
       </c>
       <c r="H6" t="n">
-        <v>450151.2784772586</v>
+        <v>450756.037889291</v>
       </c>
       <c r="I6" t="n">
-        <v>450151.2784772584</v>
+        <v>450756.0378892906</v>
       </c>
       <c r="J6" t="n">
-        <v>295424.7427940424</v>
+        <v>296029.5022060744</v>
       </c>
       <c r="K6" t="n">
-        <v>428809.1798950573</v>
+        <v>429413.9393070899</v>
       </c>
       <c r="L6" t="n">
-        <v>450151.2784772582</v>
+        <v>450756.0378892906</v>
       </c>
       <c r="M6" t="n">
-        <v>320508.9636383134</v>
+        <v>321113.7230503457</v>
       </c>
       <c r="N6" t="n">
-        <v>450151.2784772584</v>
+        <v>450756.0378892908</v>
       </c>
       <c r="O6" t="n">
-        <v>450151.2784772585</v>
+        <v>450756.0378892905</v>
       </c>
       <c r="P6" t="n">
-        <v>450151.2784772583</v>
+        <v>450756.0378892907</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435496</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435496</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353712</v>
+        <v>71.38374637353684</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330811</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330834</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330811</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>266.2517172975596</v>
       </c>
       <c r="I2" t="n">
-        <v>8.341670617891538</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.62234844550176</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>182.306902766559</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.32056035465277</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.9016956573184</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
-        <v>2.320560354653111</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>330.406330914235</v>
+        <v>57.13247501891215</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>125.6297823812639</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>74.0072542055231</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.52067551358118</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.091280493946414</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.514180432117442e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.758651504979532e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212162</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452642</v>
+        <v>47.48116877452645</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095243</v>
+        <v>219.7570494095244</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579889</v>
+        <v>177.105282957989</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940653</v>
+        <v>77.36434648940657</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978851</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216635</v>
+        <v>5.391318755216638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380479</v>
+        <v>0.09852781277380485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65896284215405</v>
+        <v>0.6589628421540504</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014115</v>
+        <v>6.364193765014119</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403682</v>
+        <v>62.25753764403685</v>
       </c>
       <c r="K3" t="n">
         <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382928</v>
+        <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338365</v>
+        <v>84.11602876338371</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163481</v>
+        <v>40.91349997163483</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276647</v>
+        <v>0.04335281856276649</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654172</v>
+        <v>0.5524523108654175</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967079</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818499</v>
+        <v>39.05837837818501</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509119</v>
+        <v>64.18491393509122</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448214</v>
+        <v>82.13459174448218</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750217</v>
+        <v>86.59941087502175</v>
       </c>
       <c r="N4" t="n">
-        <v>84.5402704436143</v>
+        <v>84.54027044361436</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395918</v>
+        <v>78.08662299395922</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230462</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437599</v>
+        <v>46.26034759437601</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400321</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263675</v>
+        <v>9.627737090263681</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515873</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084099</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302152</v>
+        <v>92.58102251302159</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245394</v>
+        <v>435.4250728245395</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.670995374202</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
         <v>123.0079925564205</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777899</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202352</v>
+        <v>375.3647177202353</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904528</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>197.1943485033526</v>
       </c>
       <c r="P3" t="n">
         <v>310.3213621979887</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.866739163765147</v>
+        <v>154.2115424132113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920834</v>
+        <v>41.91542210920836</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047983</v>
@@ -34868,13 +34868,13 @@
         <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
         <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.0951551171981</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35667,7 +35667,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>436.1813745723063</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>400.2071677594244</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>562.729259346864</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>324.0400586087388</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>324.0400586087388</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>866.0091179129988</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021768</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115047</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129995</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443158</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>671.9201333872395</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>332.9556952494702</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.0147654914588</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>654.0944880967822</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>671.9201333872393</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
